--- a/tun/0128/tun.xlsx
+++ b/tun/0128/tun.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Projects\TianChi_Diabetes\tun\0127\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="8076"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,12 +64,48 @@
   <si>
     <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>RamdomForest</t>
+  </si>
+  <si>
+    <t>ElasticNet</t>
+  </si>
+  <si>
+    <t>catboost</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>KRR</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,13 +465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -465,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>383</v>
       </c>
@@ -493,7 +525,7 @@
         <v>9.838600000000012</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>270</v>
       </c>
@@ -521,7 +553,7 @@
         <v>7.077900000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -534,4 +566,377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.70330300000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.159551</v>
+      </c>
+      <c r="D4">
+        <v>1.027566</v>
+      </c>
+      <c r="E4">
+        <v>1.1129020000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.84597699999999998</v>
+      </c>
+      <c r="G4">
+        <v>1.07819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.82707399999999998</v>
+      </c>
+      <c r="C5">
+        <v>1.327788</v>
+      </c>
+      <c r="D5">
+        <v>1.1735660000000001</v>
+      </c>
+      <c r="E5">
+        <v>1.3766179999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.96451200000000004</v>
+      </c>
+      <c r="G5">
+        <v>1.204888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.70310799999999996</v>
+      </c>
+      <c r="C6">
+        <v>1.1594500000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.027719</v>
+      </c>
+      <c r="E6">
+        <v>1.1129560000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.84624100000000002</v>
+      </c>
+      <c r="G6">
+        <v>1.0783370000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.66386400000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.1243939999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.97581799999999996</v>
+      </c>
+      <c r="E7">
+        <v>1.1523920000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.83379700000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.0264800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0.693218</v>
+      </c>
+      <c r="C8">
+        <v>1.167025</v>
+      </c>
+      <c r="D8">
+        <v>0.99964600000000003</v>
+      </c>
+      <c r="E8">
+        <v>1.208016</v>
+      </c>
+      <c r="F8">
+        <v>0.90154999999999996</v>
+      </c>
+      <c r="G8">
+        <v>1.0735730000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.746174</v>
+      </c>
+      <c r="C9">
+        <v>1.21007</v>
+      </c>
+      <c r="D9">
+        <v>1.384498</v>
+      </c>
+      <c r="E9">
+        <v>1.1164080000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.046421</v>
+      </c>
+      <c r="G9">
+        <v>1.138951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.75706300000000004</v>
+      </c>
+      <c r="C10">
+        <v>1.208537</v>
+      </c>
+      <c r="D10">
+        <v>1.0604739999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.2908580000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.0012730000000001</v>
+      </c>
+      <c r="G10">
+        <v>1.152185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0.64942800000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.131122</v>
+      </c>
+      <c r="D11">
+        <v>0.96987000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.137443</v>
+      </c>
+      <c r="F11">
+        <v>0.82061099999999998</v>
+      </c>
+      <c r="G11">
+        <v>1.0046790000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1.0199119999999999</v>
+      </c>
+      <c r="C16">
+        <v>8.7744000000000003E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.38425799999999999</v>
+      </c>
+      <c r="E16">
+        <v>8.7724999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1.081677</v>
+      </c>
+      <c r="C17">
+        <v>6.5003000000000005E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.41783599999999999</v>
+      </c>
+      <c r="E17">
+        <v>6.2757999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1.0198929999999999</v>
+      </c>
+      <c r="C18">
+        <v>8.7751999999999997E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.38430599999999998</v>
+      </c>
+      <c r="E18">
+        <v>8.7732000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1.0348919999999999</v>
+      </c>
+      <c r="C19">
+        <v>8.1712999999999994E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.376004</v>
+      </c>
+      <c r="E19">
+        <v>8.1669000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.0483739999999999</v>
+      </c>
+      <c r="C20">
+        <v>7.6401999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>7.6219999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1.391446</v>
+      </c>
+      <c r="C21">
+        <v>-6.2031999999999997E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.40970099999999998</v>
+      </c>
+      <c r="E21">
+        <v>-6.2459000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1.110071</v>
+      </c>
+      <c r="C22">
+        <v>5.1581000000000002E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.43035699999999999</v>
+      </c>
+      <c r="E22">
+        <v>5.1279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1.0101329999999999</v>
+      </c>
+      <c r="C23">
+        <v>9.2015E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.37335099999999999</v>
+      </c>
+      <c r="E23">
+        <v>9.1676999999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>